--- a/data/trans_camb/P19C04-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P19C04-Estudios-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P19C04-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P19C04-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,66</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,39</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,85</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,86</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,01</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,56</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,57</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,48; 15,39</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,96; 8,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,9; 8,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,03; 7,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,51; 3,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,95; 4,15</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,8; 9,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,76; 4,11</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,42; 4,49</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,56%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,73%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,47%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,99%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,45%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,11%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,02%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,26; 53,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,08; 28,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,72; 30,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,51; 35,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,01; 17,33</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,18; 20,17</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,86; 39,78</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,16; 16,43</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,31; 17,82</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,62</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,93</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,74</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,13</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,9</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,56</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,99</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,81</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,25; 5,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,78; 0,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,51; -1,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,25; 4,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,54; 2,12</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,52; -0,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,55; 4,42</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,78; 0,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,66; -2,24</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,4%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,61%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-26,01%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,37%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,55%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,98%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,23%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,68%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,66%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,26; 33,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,37; 3,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,14; -11,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,07; 44,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,18; 20,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,2; -8,27</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,62; 31,79</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,59; 6,67</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,9; -15,83</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,16</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,58</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,44</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,91</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,22; 6,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,28; 4,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,71; 3,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,08; 5,57</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,23; 5,11</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,38; 1,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,15; 4,42</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,92; 3,21</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,22; 1,58</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,83%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,9%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,74%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,59%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,29%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,55%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,63%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,4%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,72; 97,85</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,28; 66,42</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,08; 53,73</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,13; 115,15</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,28; 114,91</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,16; 23,6</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,7; 77,94</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,45; 52,98</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,68; 28,27</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,8</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,17</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,24</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,85</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,61</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,6</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,83</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,83</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,92</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,58; 7,08</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,42; 0,05</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,43; -2,22</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,89; 4,7</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,6; 0,26</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,51; -2,04</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,31; 5,32</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,27; -0,43</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,3; -2,5</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,08%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,87%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,24%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,42%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,96%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,54%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,33%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,66%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,84%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,29; 37,84</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,26; 0,25</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,51; -11,78</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,92; 34,4</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,97; 1,87</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,76; -14,78</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,81; 32,16</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,15; -2,58</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,5; -15,35</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P19C04-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P19C04-Estudios-trans_camb.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,85</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,57</t>
+          <t>1,59</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 8,78</t>
+          <t>-2,49; 8,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 4,15</t>
+          <t>-2,78; 4,37</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,42; 4,49</t>
+          <t>-1,36; 4,46</t>
         </is>
       </c>
     </row>
@@ -748,7 +748,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>12,47%</t>
+          <t>10,49%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>3,13%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>6,07%</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 30,88</t>
+          <t>-8,18; 28,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-12,18; 20,17</t>
+          <t>-11,25; 21,46</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 17,82</t>
+          <t>-4,96; 17,89</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-4,74</t>
+          <t>-6,18</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,9</t>
+          <t>-3,62</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-3,81</t>
+          <t>-4,81</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,51; -1,96</t>
+          <t>-10,31; -3,34</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,52; -0,87</t>
+          <t>-6,75; -1,43</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-5,66; -2,24</t>
+          <t>-7,4; -2,91</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-26,01%</t>
+          <t>-33,91%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-24,98%</t>
+          <t>-31,15%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-25,66%</t>
+          <t>-32,41%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-38,14; -11,56</t>
+          <t>-54,06; -19,79</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-42,2; -8,27</t>
+          <t>-54,38; -14,11</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-35,9; -15,83</t>
+          <t>-47,61; -20,94</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,44</t>
+          <t>-1,42</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>-0,95</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,71; 3,34</t>
+          <t>-3,86; 3,17</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 1,0</t>
+          <t>-4,37; 1,01</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 1,58</t>
+          <t>-3,24; 1,56</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-1,9%</t>
+          <t>-3,96%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-23,29%</t>
+          <t>-22,93%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-12,4%</t>
+          <t>-13,03%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-36,08; 53,73</t>
+          <t>-37,84; 50,52</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-53,16; 23,6</t>
+          <t>-52,6; 23,39</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-36,68; 28,27</t>
+          <t>-37,25; 28,26</t>
         </is>
       </c>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-4,24</t>
+          <t>-5,49</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-3,6</t>
+          <t>-4,16</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-3,92</t>
+          <t>-4,74</t>
         </is>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-6,43; -2,22</t>
+          <t>-9,02; -3,12</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,51; -2,04</t>
+          <t>-6,55; -2,43</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-5,3; -2,5</t>
+          <t>-6,63; -3,21</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-21,24%</t>
+          <t>-27,5%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-24,54%</t>
+          <t>-28,35%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-22,84%</t>
+          <t>-27,63%</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-30,51; -11,78</t>
+          <t>-44,1; -16,58</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-34,76; -14,78</t>
+          <t>-42,25; -17,79</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-29,5; -15,35</t>
+          <t>-37,6; -19,71</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P19C04-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P19C04-Estudios-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,48; 15,39</t>
+          <t>5,9; 16,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 8,21</t>
+          <t>-2,66; 7,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 8,08</t>
+          <t>-1,74; 8,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 7,65</t>
+          <t>-0,28; 7,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 3,51</t>
+          <t>-5,03; 3,38</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 4,37</t>
+          <t>-2,97; 4,26</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,8; 9,69</t>
+          <t>3,33; 9,17</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 4,11</t>
+          <t>-3,11; 3,81</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 4,46</t>
+          <t>-1,33; 4,31</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,26; 53,9</t>
+          <t>17,12; 57,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,08; 28,46</t>
+          <t>-8,15; 28,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,18; 28,55</t>
+          <t>-5,04; 29,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 35,54</t>
+          <t>-1,13; 36,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-23,01; 17,33</t>
+          <t>-20,82; 16,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-11,25; 21,46</t>
+          <t>-11,6; 21,14</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,86; 39,78</t>
+          <t>11,81; 37,37</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-10,16; 16,43</t>
+          <t>-11,61; 15,36</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 17,89</t>
+          <t>-4,83; 17,55</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 5,6</t>
+          <t>-0,1; 5,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 0,66</t>
+          <t>-4,69; 0,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,31; -3,34</t>
+          <t>-10,68; -3,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 4,58</t>
+          <t>-0,43; 4,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 2,12</t>
+          <t>-2,21; 2,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,75; -1,43</t>
+          <t>-6,22; -1,52</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,55; 4,42</t>
+          <t>0,74; 4,49</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 0,92</t>
+          <t>-2,87; 0,93</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-7,4; -2,91</t>
+          <t>-7,32; -2,91</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 33,8</t>
+          <t>-0,51; 32,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-24,37; 3,94</t>
+          <t>-24,12; 3,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-54,06; -19,79</t>
+          <t>-54,85; -20,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 44,62</t>
+          <t>-3,27; 45,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-20,18; 20,16</t>
+          <t>-17,31; 23,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-54,38; -14,11</t>
+          <t>-51,16; -15,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,62; 31,79</t>
+          <t>4,68; 32,96</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-17,59; 6,67</t>
+          <t>-18,26; 6,87</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-47,61; -20,94</t>
+          <t>-46,26; -20,73</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 6,33</t>
+          <t>-2,57; 6,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 4,11</t>
+          <t>-3,5; 4,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 3,17</t>
+          <t>-3,62; 3,3</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 5,57</t>
+          <t>-1,92; 5,39</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 5,11</t>
+          <t>-1,89; 4,99</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 1,01</t>
+          <t>-4,75; 1,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 4,42</t>
+          <t>-0,93; 4,74</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 3,21</t>
+          <t>-1,72; 3,18</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 1,56</t>
+          <t>-3,02; 1,24</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-21,72; 97,85</t>
+          <t>-23,63; 93,38</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-33,28; 66,42</t>
+          <t>-34,76; 70,41</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-37,84; 50,52</t>
+          <t>-34,53; 50,15</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-30,13; 115,15</t>
+          <t>-24,21; 119,12</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-29,28; 114,91</t>
+          <t>-24,16; 112,81</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-52,6; 23,39</t>
+          <t>-55,21; 26,69</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-14,7; 77,94</t>
+          <t>-11,58; 76,49</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-21,45; 52,98</t>
+          <t>-20,61; 53,27</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-37,25; 28,26</t>
+          <t>-36,42; 20,73</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,58; 7,08</t>
+          <t>2,69; 7,1</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,42; 0,05</t>
+          <t>-4,43; 0,06</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,02; -3,12</t>
+          <t>-8,73; -3,05</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,89; 4,7</t>
+          <t>0,92; 4,86</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 0,26</t>
+          <t>-3,55; 0,3</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,55; -2,43</t>
+          <t>-6,6; -2,32</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,31; 5,32</t>
+          <t>2,36; 5,36</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,27; -0,43</t>
+          <t>-3,3; -0,31</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-6,63; -3,21</t>
+          <t>-6,6; -3,28</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>12,29; 37,84</t>
+          <t>12,94; 37,78</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-21,26; 0,25</t>
+          <t>-20,95; 0,38</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-44,1; -16,58</t>
+          <t>-43,0; -16,24</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>5,92; 34,4</t>
+          <t>5,84; 35,45</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-22,97; 1,87</t>
+          <t>-22,74; 2,18</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-42,25; -17,79</t>
+          <t>-42,37; -17,33</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>12,81; 32,16</t>
+          <t>13,5; 32,72</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-18,15; -2,58</t>
+          <t>-18,36; -1,82</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-37,6; -19,71</t>
+          <t>-37,64; -19,89</t>
         </is>
       </c>
     </row>
